--- a/Database/Csaki/Elvetia.xlsx
+++ b/Database/Csaki/Elvetia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5291D88-45B1-43F5-8D9D-212ABBA2DBA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA90598-0E7E-4A25-9C0F-EBDB34B8F69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,15 +158,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total Cases" connectionId="3" xr16:uid="{FF5C8CBF-05E6-434C-B4D8-FE7156928288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{8FE1CF55-CFB8-42BD-87AD-759AFB6FD5B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{8FE1CF55-CFB8-42BD-87AD-759AFB6FD5B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily Cases" connectionId="1" xr16:uid="{57917421-F7FE-4EFB-ACAE-E03E208DBA81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily Cases" connectionId="1" xr16:uid="{57917421-F7FE-4EFB-ACAE-E03E208DBA81}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total Cases" connectionId="3" xr16:uid="{FF5C8CBF-05E6-434C-B4D8-FE7156928288}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D425" sqref="D425:D444"/>
+      <selection activeCell="D2" sqref="D2:D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6661,6 +6661,370 @@
         <v>10634</v>
       </c>
     </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" s="3">
+        <v>663952</v>
+      </c>
+      <c r="C445" s="4">
+        <v>3978</v>
+      </c>
+      <c r="D445" s="2">
+        <v>10655</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" s="3">
+        <v>665585</v>
+      </c>
+      <c r="C446" s="4">
+        <v>1633</v>
+      </c>
+      <c r="D446" s="2">
+        <v>10667</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" s="3">
+        <v>667380</v>
+      </c>
+      <c r="C447" s="4">
+        <v>1795</v>
+      </c>
+      <c r="D447" s="2">
+        <v>10685</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" s="3">
+        <v>669067</v>
+      </c>
+      <c r="C448" s="4">
+        <v>1687</v>
+      </c>
+      <c r="D448" s="2">
+        <v>10695</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" s="3">
+        <v>670613</v>
+      </c>
+      <c r="C449" s="4">
+        <v>1546</v>
+      </c>
+      <c r="D449" s="2">
+        <v>10702</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" s="3">
+        <v>670613</v>
+      </c>
+      <c r="C450" s="4">
+        <v>0</v>
+      </c>
+      <c r="D450" s="2">
+        <v>10704</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" s="3">
+        <v>670613</v>
+      </c>
+      <c r="C451" s="4">
+        <v>0</v>
+      </c>
+      <c r="D451" s="2">
+        <v>10706</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" s="3">
+        <v>674296</v>
+      </c>
+      <c r="C452" s="4">
+        <v>3683</v>
+      </c>
+      <c r="D452" s="2">
+        <v>10715</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" s="3">
+        <v>675671</v>
+      </c>
+      <c r="C453" s="4">
+        <v>1375</v>
+      </c>
+      <c r="D453" s="2">
+        <v>10721</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" s="3">
+        <v>677210</v>
+      </c>
+      <c r="C454" s="4">
+        <v>1539</v>
+      </c>
+      <c r="D454" s="2">
+        <v>10725</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" s="3">
+        <v>677210</v>
+      </c>
+      <c r="C455" s="4">
+        <v>0</v>
+      </c>
+      <c r="D455" s="2">
+        <v>10728</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" s="3">
+        <v>679510</v>
+      </c>
+      <c r="C456" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D456" s="2">
+        <v>10730</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" s="3">
+        <v>679510</v>
+      </c>
+      <c r="C457" s="4">
+        <v>0</v>
+      </c>
+      <c r="D457" s="2">
+        <v>10730</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" s="3">
+        <v>679510</v>
+      </c>
+      <c r="C458" s="4">
+        <v>0</v>
+      </c>
+      <c r="D458" s="2">
+        <v>10731</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" s="3">
+        <v>682160</v>
+      </c>
+      <c r="C459" s="4">
+        <v>2650</v>
+      </c>
+      <c r="D459" s="2">
+        <v>10744</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" s="3">
+        <v>683400</v>
+      </c>
+      <c r="C460" s="4">
+        <v>1240</v>
+      </c>
+      <c r="D460" s="2">
+        <v>10751</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" s="3">
+        <v>684954</v>
+      </c>
+      <c r="C461" s="4">
+        <v>1554</v>
+      </c>
+      <c r="D461" s="2">
+        <v>10755</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" s="3">
+        <v>686152</v>
+      </c>
+      <c r="C462" s="4">
+        <v>1198</v>
+      </c>
+      <c r="D462" s="2">
+        <v>10760</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" s="3">
+        <v>687353</v>
+      </c>
+      <c r="C463" s="4">
+        <v>1201</v>
+      </c>
+      <c r="D463" s="2">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" s="3">
+        <v>687353</v>
+      </c>
+      <c r="C464" s="4">
+        <v>0</v>
+      </c>
+      <c r="D464" s="2">
+        <v>10775</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" s="3">
+        <v>687353</v>
+      </c>
+      <c r="C465" s="4">
+        <v>0</v>
+      </c>
+      <c r="D465" s="2">
+        <v>10776</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" s="3">
+        <v>687353</v>
+      </c>
+      <c r="C466" s="4">
+        <v>0</v>
+      </c>
+      <c r="D466" s="2">
+        <v>10779</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" s="3">
+        <v>690123</v>
+      </c>
+      <c r="C467" s="4">
+        <v>2770</v>
+      </c>
+      <c r="D467" s="2">
+        <v>10786</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" s="3">
+        <v>691119</v>
+      </c>
+      <c r="C468" s="4">
+        <v>996</v>
+      </c>
+      <c r="D468" s="2">
+        <v>10789</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" s="3">
+        <v>692111</v>
+      </c>
+      <c r="C469" s="4">
+        <v>992</v>
+      </c>
+      <c r="D469" s="2">
+        <v>10798</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" s="3">
+        <v>693023</v>
+      </c>
+      <c r="C470" s="4">
+        <v>912</v>
+      </c>
+      <c r="D470" s="2">
+        <v>10801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
